--- a/Code/Results/Cases/Case_7_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_13/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.446856378456573</v>
+        <v>1.018463335550621</v>
       </c>
       <c r="C2">
-        <v>0.350166261085235</v>
+        <v>0.1233963298855585</v>
       </c>
       <c r="D2">
-        <v>0.04042865009542362</v>
+        <v>0.07149684309569437</v>
       </c>
       <c r="E2">
-        <v>0.02955304940036063</v>
+        <v>0.05670970416319854</v>
       </c>
       <c r="F2">
-        <v>1.480222721030245</v>
+        <v>0.6259696967955222</v>
       </c>
       <c r="G2">
-        <v>0.0008109582492825559</v>
+        <v>0.0008172907531630494</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5769558461488131</v>
+        <v>0.8390284302267901</v>
       </c>
       <c r="L2">
-        <v>0.1486229473583833</v>
+        <v>0.1481459928642792</v>
       </c>
       <c r="M2">
-        <v>0.4147844741256179</v>
+        <v>0.2159560812052668</v>
       </c>
       <c r="N2">
-        <v>1.130350403758563</v>
+        <v>1.001365931483747</v>
       </c>
       <c r="O2">
-        <v>1.16356553711195</v>
+        <v>1.97363009311988</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.131783345112922</v>
+        <v>0.8877594263237256</v>
       </c>
       <c r="C3">
-        <v>0.3076669021416905</v>
+        <v>0.1217444402970997</v>
       </c>
       <c r="D3">
-        <v>0.04227493214764566</v>
+        <v>0.06603331230074616</v>
       </c>
       <c r="E3">
-        <v>0.02994282140056925</v>
+        <v>0.05574580041938226</v>
       </c>
       <c r="F3">
-        <v>1.366260950115048</v>
+        <v>0.6007638800065038</v>
       </c>
       <c r="G3">
-        <v>0.0008177492314869253</v>
+        <v>0.0008208652762883485</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4995423837685351</v>
+        <v>0.7293306145272425</v>
       </c>
       <c r="L3">
-        <v>0.1347458818690512</v>
+        <v>0.1345500932728783</v>
       </c>
       <c r="M3">
-        <v>0.363702096377466</v>
+        <v>0.1897850768440641</v>
       </c>
       <c r="N3">
-        <v>1.17881245794532</v>
+        <v>1.046394441945043</v>
       </c>
       <c r="O3">
-        <v>1.085684712071284</v>
+        <v>1.937902164400384</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.94091976436016</v>
+        <v>0.8078940891986406</v>
       </c>
       <c r="C4">
-        <v>0.2817311698580909</v>
+        <v>0.1207438154105347</v>
       </c>
       <c r="D4">
-        <v>0.04343384959573982</v>
+        <v>0.06266087962365674</v>
       </c>
       <c r="E4">
-        <v>0.03019886159749063</v>
+        <v>0.05522460833454268</v>
       </c>
       <c r="F4">
-        <v>1.299151922150713</v>
+        <v>0.5863036236506716</v>
       </c>
       <c r="G4">
-        <v>0.0008220436940739762</v>
+        <v>0.0008231367085477591</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4525572692214368</v>
+        <v>0.6620879479633146</v>
       </c>
       <c r="L4">
-        <v>0.1264298475529984</v>
+        <v>0.1263511834011553</v>
       </c>
       <c r="M4">
-        <v>0.3328147105112151</v>
+        <v>0.1738405016414895</v>
       </c>
       <c r="N4">
-        <v>1.210221314356154</v>
+        <v>1.075211272222401</v>
       </c>
       <c r="O4">
-        <v>1.040179361065242</v>
+        <v>1.919255931929399</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.863715644508062</v>
+        <v>0.7754329667780837</v>
       </c>
       <c r="C5">
-        <v>0.27119226154079</v>
+        <v>0.1203393774220771</v>
       </c>
       <c r="D5">
-        <v>0.04391239206315811</v>
+        <v>0.06128189307776211</v>
       </c>
       <c r="E5">
-        <v>0.03030733826074195</v>
+        <v>0.05502945219412148</v>
       </c>
       <c r="F5">
-        <v>1.272467717195525</v>
+        <v>0.5806550860015705</v>
       </c>
       <c r="G5">
-        <v>0.0008238260803122925</v>
+        <v>0.0008240818979317326</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4335293192380618</v>
+        <v>0.6347047960290979</v>
       </c>
       <c r="L5">
-        <v>0.1230882608165942</v>
+        <v>0.1230452798665098</v>
       </c>
       <c r="M5">
-        <v>0.3203348464641849</v>
+        <v>0.1673712988270353</v>
       </c>
       <c r="N5">
-        <v>1.223420819183659</v>
+        <v>1.087242334743014</v>
       </c>
       <c r="O5">
-        <v>1.022173283020983</v>
+        <v>1.912452009350474</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.850928482733281</v>
+        <v>0.7700475740775232</v>
       </c>
       <c r="C6">
-        <v>0.2694438275442792</v>
+        <v>0.1202724186943733</v>
       </c>
       <c r="D6">
-        <v>0.04399223041343392</v>
+        <v>0.06105262387458765</v>
       </c>
       <c r="E6">
-        <v>0.03032559884721442</v>
+        <v>0.05499807243939081</v>
       </c>
       <c r="F6">
-        <v>1.268075295855581</v>
+        <v>0.5797315721008971</v>
       </c>
       <c r="G6">
-        <v>0.000824124026132749</v>
+        <v>0.000824240035607261</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4303764002025474</v>
+        <v>0.6301587122685106</v>
       </c>
       <c r="L6">
-        <v>0.1225361310313033</v>
+        <v>0.1224984002745799</v>
       </c>
       <c r="M6">
-        <v>0.3182686725095678</v>
+        <v>0.1662987202347601</v>
       </c>
       <c r="N6">
-        <v>1.225636321857529</v>
+        <v>1.08925730540266</v>
       </c>
       <c r="O6">
-        <v>1.019214633194949</v>
+        <v>1.911369278454131</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.939876335717031</v>
+        <v>0.8074559808028425</v>
       </c>
       <c r="C7">
-        <v>0.2815889290593248</v>
+        <v>0.120738347689656</v>
       </c>
       <c r="D7">
-        <v>0.0434402780844505</v>
+        <v>0.06264230140791227</v>
       </c>
       <c r="E7">
-        <v>0.03020030787906691</v>
+        <v>0.05522190729690202</v>
       </c>
       <c r="F7">
-        <v>1.298789436424144</v>
+        <v>0.5862264716990069</v>
       </c>
       <c r="G7">
-        <v>0.0008220675997002282</v>
+        <v>0.0008231493761389763</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4523001941065559</v>
+        <v>0.6617185852810792</v>
       </c>
       <c r="L7">
-        <v>0.1263845956767113</v>
+        <v>0.1263064591354066</v>
       </c>
       <c r="M7">
-        <v>0.332645986065927</v>
+        <v>0.1737531447814504</v>
       </c>
       <c r="N7">
-        <v>1.210397727022922</v>
+        <v>1.075372369104622</v>
       </c>
       <c r="O7">
-        <v>1.039934403638256</v>
+        <v>1.919160997105195</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.337632607405226</v>
+        <v>0.9733083056960083</v>
       </c>
       <c r="C8">
-        <v>0.3354732814345311</v>
+        <v>0.1228238600393894</v>
       </c>
       <c r="D8">
-        <v>0.041059942096068</v>
+        <v>0.06961657752982831</v>
       </c>
       <c r="E8">
-        <v>0.02968393144278059</v>
+        <v>0.05636235980608539</v>
       </c>
       <c r="F8">
-        <v>1.440298755917013</v>
+        <v>0.6170607842405715</v>
       </c>
       <c r="G8">
-        <v>0.0008132744954694117</v>
+        <v>0.0008185075132677855</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5501384446735358</v>
+        <v>0.8011754611318338</v>
       </c>
       <c r="L8">
-        <v>0.1437930801337473</v>
+        <v>0.14342580218932</v>
       </c>
       <c r="M8">
-        <v>0.3970640284079394</v>
+        <v>0.2069046315437184</v>
       </c>
       <c r="N8">
-        <v>1.146707369874456</v>
+        <v>1.016645405762668</v>
       </c>
       <c r="O8">
-        <v>1.136204457003302</v>
+        <v>1.960607770796173</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.142034703089109</v>
+        <v>1.302241161993607</v>
       </c>
       <c r="C9">
-        <v>0.4428928591704846</v>
+        <v>0.1270272547154079</v>
       </c>
       <c r="D9">
-        <v>0.03659747690342696</v>
+        <v>0.08316276434639036</v>
       </c>
       <c r="E9">
-        <v>0.02880725168369569</v>
+        <v>0.05918461082468163</v>
       </c>
       <c r="F9">
-        <v>1.743318530118628</v>
+        <v>0.6861334947150652</v>
       </c>
       <c r="G9">
-        <v>0.0007969732318339125</v>
+        <v>0.0008099995395969372</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.7472643216449839</v>
+        <v>1.076003848223763</v>
       </c>
       <c r="L9">
-        <v>0.1797590883002727</v>
+        <v>0.1782878187691068</v>
       </c>
       <c r="M9">
-        <v>0.5278196957746459</v>
+        <v>0.2730470805548961</v>
       </c>
       <c r="N9">
-        <v>1.035683093569745</v>
+        <v>0.9110402589654374</v>
       </c>
       <c r="O9">
-        <v>1.34551631633606</v>
+        <v>2.069564408556943</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.753792592174591</v>
+        <v>1.547100094803852</v>
       </c>
       <c r="C10">
-        <v>0.5236404679515374</v>
+        <v>0.1301935014511457</v>
       </c>
       <c r="D10">
-        <v>0.03345213148160786</v>
+        <v>0.09305253789062107</v>
       </c>
       <c r="E10">
-        <v>0.0282511356896995</v>
+        <v>0.06165234153341892</v>
       </c>
       <c r="F10">
-        <v>1.985781973892301</v>
+        <v>0.742928705499267</v>
       </c>
       <c r="G10">
-        <v>0.0007854979948751266</v>
+        <v>0.0008040913860363496</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.8967244454398582</v>
+        <v>1.279446416446575</v>
       </c>
       <c r="L10">
-        <v>0.2076113331988694</v>
+        <v>0.2048493216449003</v>
       </c>
       <c r="M10">
-        <v>0.6275761343817763</v>
+        <v>0.322548760884338</v>
       </c>
       <c r="N10">
-        <v>0.9637220898527374</v>
+        <v>0.8396866887393539</v>
       </c>
       <c r="O10">
-        <v>1.515128232850273</v>
+        <v>2.168796628964486</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.038075674666118</v>
+        <v>1.659408976501709</v>
       </c>
       <c r="C11">
-        <v>0.560962190675184</v>
+        <v>0.1316530204023252</v>
       </c>
       <c r="D11">
-        <v>0.03205254425467174</v>
+        <v>0.09754205312340503</v>
       </c>
       <c r="E11">
-        <v>0.02801857493438176</v>
+        <v>0.06286927638799966</v>
       </c>
       <c r="F11">
-        <v>2.101459868195448</v>
+        <v>0.770268416246779</v>
       </c>
       <c r="G11">
-        <v>0.0007803684692384598</v>
+        <v>0.0008014733957666851</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9660790654706801</v>
+        <v>1.372496272260037</v>
       </c>
       <c r="L11">
-        <v>0.2206700547535831</v>
+        <v>0.217176878016474</v>
       </c>
       <c r="M11">
-        <v>0.6740057321997952</v>
+        <v>0.3453166100090996</v>
       </c>
       <c r="N11">
-        <v>0.933360604549911</v>
+        <v>0.8086760378042932</v>
       </c>
       <c r="O11">
-        <v>1.596555835435211</v>
+        <v>2.21865044406502</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.146724425951504</v>
+        <v>1.702089314621048</v>
       </c>
       <c r="C12">
-        <v>0.5751975746563289</v>
+        <v>0.1322086533925955</v>
       </c>
       <c r="D12">
-        <v>0.03152731101260198</v>
+        <v>0.0992410972153337</v>
       </c>
       <c r="E12">
-        <v>0.02793357615897474</v>
+        <v>0.06334443024510605</v>
       </c>
       <c r="F12">
-        <v>2.146137537698422</v>
+        <v>0.7808541467335033</v>
       </c>
       <c r="G12">
-        <v>0.0007784374254374014</v>
+        <v>0.0008004916498805078</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.99257115509144</v>
+        <v>1.407818664094151</v>
       </c>
       <c r="L12">
-        <v>0.2256781533278485</v>
+        <v>0.2218835102964789</v>
       </c>
       <c r="M12">
-        <v>0.6917612761306842</v>
+        <v>0.3539785230715822</v>
       </c>
       <c r="N12">
-        <v>0.9222323220678561</v>
+        <v>0.7971501430082153</v>
       </c>
       <c r="O12">
-        <v>1.62808204122453</v>
+        <v>2.238254939069094</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.123278322783278</v>
+        <v>1.692890291409981</v>
       </c>
       <c r="C13">
-        <v>0.57212686908926</v>
+        <v>0.1320888537363629</v>
       </c>
       <c r="D13">
-        <v>0.03164021287315055</v>
+        <v>0.09887521863935689</v>
       </c>
       <c r="E13">
-        <v>0.02795174349442897</v>
+        <v>0.06324144757964945</v>
       </c>
       <c r="F13">
-        <v>2.136474879976575</v>
+        <v>0.7785636915371157</v>
       </c>
       <c r="G13">
-        <v>0.0007788528312273729</v>
+        <v>0.0008007026644682809</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9868548641297963</v>
+        <v>1.400207275348521</v>
       </c>
       <c r="L13">
-        <v>0.2245966436828581</v>
+        <v>0.2208680880262506</v>
       </c>
       <c r="M13">
-        <v>0.6879291909744367</v>
+        <v>0.3521111633709566</v>
       </c>
       <c r="N13">
-        <v>0.9246121155083671</v>
+        <v>0.7996226446181627</v>
       </c>
       <c r="O13">
-        <v>1.621260240078527</v>
+        <v>2.233999671150769</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.046993465678838</v>
+        <v>1.662917166313633</v>
       </c>
       <c r="C14">
-        <v>0.5621311821053325</v>
+        <v>0.1316986725061398</v>
       </c>
       <c r="D14">
-        <v>0.03200923588635751</v>
+        <v>0.09768185344274372</v>
       </c>
       <c r="E14">
-        <v>0.02801151975716465</v>
+        <v>0.06290807593389047</v>
       </c>
       <c r="F14">
-        <v>2.105117424293979</v>
+        <v>0.7711345465365866</v>
       </c>
       <c r="G14">
-        <v>0.000780209382718242</v>
+        <v>0.0008013924362112709</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.9682537955370947</v>
+        <v>1.375400450022426</v>
       </c>
       <c r="L14">
-        <v>0.2210807668392647</v>
+        <v>0.2175633052517441</v>
       </c>
       <c r="M14">
-        <v>0.6754628724042036</v>
+        <v>0.3460283985758892</v>
       </c>
       <c r="N14">
-        <v>0.9324375108054426</v>
+        <v>0.8077233902645489</v>
       </c>
       <c r="O14">
-        <v>1.599135187181304</v>
+        <v>2.220248480915728</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.000400881792416</v>
+        <v>1.644578062226543</v>
       </c>
       <c r="C15">
-        <v>0.5560224388044332</v>
+        <v>0.1314600646091506</v>
       </c>
       <c r="D15">
-        <v>0.03223590184403147</v>
+        <v>0.09695075725534963</v>
       </c>
       <c r="E15">
-        <v>0.02804853802468221</v>
+        <v>0.06270576529469807</v>
       </c>
       <c r="F15">
-        <v>2.08602689290413</v>
+        <v>0.7666148061524893</v>
       </c>
       <c r="G15">
-        <v>0.0007810417423393571</v>
+        <v>0.0008018161836078898</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.9568909605374643</v>
+        <v>1.360217245310423</v>
       </c>
       <c r="L15">
-        <v>0.2189356262847326</v>
+        <v>0.2155441392701789</v>
       </c>
       <c r="M15">
-        <v>0.6678502230038816</v>
+        <v>0.3423079025551914</v>
       </c>
       <c r="N15">
-        <v>0.9372797104660222</v>
+        <v>0.8127138856181126</v>
       </c>
       <c r="O15">
-        <v>1.585675423042161</v>
+        <v>2.211921505381724</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.735345832531436</v>
+        <v>1.53978057262583</v>
       </c>
       <c r="C16">
-        <v>0.521214732690197</v>
+        <v>0.1300985199390183</v>
       </c>
       <c r="D16">
-        <v>0.03354424821612323</v>
+        <v>0.0927589747999491</v>
       </c>
       <c r="E16">
-        <v>0.02826675575247606</v>
+        <v>0.06157477446280168</v>
       </c>
       <c r="F16">
-        <v>1.978338662730522</v>
+        <v>0.7411736362198269</v>
       </c>
       <c r="G16">
-        <v>0.0007858349089158975</v>
+        <v>0.0008042638470155405</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8922221380144464</v>
+        <v>1.273376692655631</v>
       </c>
       <c r="L16">
-        <v>0.2067663304063956</v>
+        <v>0.2040488844845356</v>
       </c>
       <c r="M16">
-        <v>0.6245648630897449</v>
+        <v>0.3210662121220338</v>
       </c>
       <c r="N16">
-        <v>0.9657563441277901</v>
+        <v>0.8417432004346423</v>
       </c>
       <c r="O16">
-        <v>1.509899095200907</v>
+        <v>2.16563744902902</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.574369560972002</v>
+        <v>1.475739740461734</v>
       </c>
       <c r="C17">
-        <v>0.5000242467856424</v>
+        <v>0.1292682956724889</v>
       </c>
       <c r="D17">
-        <v>0.03435505349806167</v>
+        <v>0.09018526280163996</v>
       </c>
       <c r="E17">
-        <v>0.02840594282378595</v>
+        <v>0.06090564015654287</v>
       </c>
       <c r="F17">
-        <v>1.913720787404344</v>
+        <v>0.7259628115471557</v>
       </c>
       <c r="G17">
-        <v>0.0007887974584135533</v>
+        <v>0.0008057829821929974</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8529216284474614</v>
+        <v>1.220241353002507</v>
       </c>
       <c r="L17">
-        <v>0.1994052611466373</v>
+        <v>0.1970618341814685</v>
       </c>
       <c r="M17">
-        <v>0.5982950069317496</v>
+        <v>0.3081019939964804</v>
       </c>
       <c r="N17">
-        <v>0.9838525599628341</v>
+        <v>0.8599288686684528</v>
       </c>
       <c r="O17">
-        <v>1.464558924595039</v>
+        <v>2.138484049015005</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.482335293515121</v>
+        <v>1.438990660384519</v>
       </c>
       <c r="C18">
-        <v>0.487890328420491</v>
+        <v>0.1287925654472346</v>
       </c>
       <c r="D18">
-        <v>0.03482432951157399</v>
+        <v>0.0887040278074096</v>
       </c>
       <c r="E18">
-        <v>0.02848791272989315</v>
+        <v>0.06052960456174716</v>
       </c>
       <c r="F18">
-        <v>1.877054154396248</v>
+        <v>0.7173543881249671</v>
       </c>
       <c r="G18">
-        <v>0.000790510074930722</v>
+        <v>0.0008066633295575827</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8304432842753187</v>
+        <v>1.18972573515569</v>
       </c>
       <c r="L18">
-        <v>0.1952074751366695</v>
+        <v>0.1930658815126378</v>
       </c>
       <c r="M18">
-        <v>0.5832826093448773</v>
+        <v>0.3006685038628163</v>
       </c>
       <c r="N18">
-        <v>0.9944826518601388</v>
+        <v>0.8705245542390898</v>
       </c>
       <c r="O18">
-        <v>1.438877308250127</v>
+        <v>2.123306630128184</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.451265503554907</v>
+        <v>1.426562184528279</v>
       </c>
       <c r="C19">
-        <v>0.4837908080665727</v>
+        <v>0.1286317938756625</v>
       </c>
       <c r="D19">
-        <v>0.03498371288886704</v>
+        <v>0.08820234262875459</v>
       </c>
       <c r="E19">
-        <v>0.02851599121440884</v>
+        <v>0.0604037799990369</v>
       </c>
       <c r="F19">
-        <v>1.864722457074038</v>
+        <v>0.7144633559771947</v>
       </c>
       <c r="G19">
-        <v>0.00079109146793536</v>
+        <v>0.0008069625417654082</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.8228532472258792</v>
+        <v>1.179401230136648</v>
       </c>
       <c r="L19">
-        <v>0.1937921716887416</v>
+        <v>0.1917167423069941</v>
       </c>
       <c r="M19">
-        <v>0.5782157327031427</v>
+        <v>0.2981555052879941</v>
       </c>
       <c r="N19">
-        <v>0.9981190905720752</v>
+        <v>0.8741351285356753</v>
       </c>
       <c r="O19">
-        <v>1.430247891800519</v>
+        <v>2.118242052986488</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.591447381616774</v>
+        <v>1.482548013163409</v>
       </c>
       <c r="C20">
-        <v>0.5022742694132489</v>
+        <v>0.1293564876157802</v>
       </c>
       <c r="D20">
-        <v>0.03426843767647414</v>
+        <v>0.09045933018698804</v>
       </c>
       <c r="E20">
-        <v>0.0283909272226861</v>
+        <v>0.06097595113175736</v>
       </c>
       <c r="F20">
-        <v>1.920547050982989</v>
+        <v>0.727567377839577</v>
       </c>
       <c r="G20">
-        <v>0.0007884812075132919</v>
+        <v>0.0008056205892539284</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8570919399566321</v>
+        <v>1.225892796685088</v>
       </c>
       <c r="L20">
-        <v>0.2001850730931665</v>
+        <v>0.1978032333614266</v>
       </c>
       <c r="M20">
-        <v>0.6010812479945429</v>
+        <v>0.3094796267894679</v>
       </c>
       <c r="N20">
-        <v>0.981903059004928</v>
+        <v>0.8579788590122295</v>
       </c>
       <c r="O20">
-        <v>1.469343857073127</v>
+        <v>2.141328645202918</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.069371969911003</v>
+        <v>1.671716733509754</v>
       </c>
       <c r="C21">
-        <v>0.5650642256345577</v>
+        <v>0.1318131966865153</v>
       </c>
       <c r="D21">
-        <v>0.03190071330923594</v>
+        <v>0.09803239930622709</v>
       </c>
       <c r="E21">
-        <v>0.02799387765574179</v>
+        <v>0.06300560015637302</v>
       </c>
       <c r="F21">
-        <v>2.114303332252931</v>
+        <v>0.7733102113474928</v>
       </c>
       <c r="G21">
-        <v>0.0007798106352648001</v>
+        <v>0.0008011895754015232</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9737108861537251</v>
+        <v>1.382684352699783</v>
       </c>
       <c r="L21">
-        <v>0.2221116932846599</v>
+        <v>0.2185329292147031</v>
       </c>
       <c r="M21">
-        <v>0.6791196263015777</v>
+        <v>0.3478139260788708</v>
       </c>
       <c r="N21">
-        <v>0.9301287542332659</v>
+        <v>0.8053380374612438</v>
       </c>
       <c r="O21">
-        <v>1.605614430987586</v>
+        <v>2.224267436505073</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.38760781360844</v>
+        <v>1.796241640428065</v>
       </c>
       <c r="C22">
-        <v>0.6067080351084542</v>
+        <v>0.1334360632539173</v>
       </c>
       <c r="D22">
-        <v>0.03038117701000687</v>
+        <v>0.1029759476063745</v>
       </c>
       <c r="E22">
-        <v>0.02775233303008351</v>
+        <v>0.06441598790258141</v>
       </c>
       <c r="F22">
-        <v>2.246076657886931</v>
+        <v>0.8045710874087746</v>
       </c>
       <c r="G22">
-        <v>0.0007742094571874191</v>
+        <v>0.0007983495882821046</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.05128078177394</v>
+        <v>1.485667768018146</v>
       </c>
       <c r="L22">
-        <v>0.2368133570641362</v>
+        <v>0.2323068028631639</v>
       </c>
       <c r="M22">
-        <v>0.7311467956938245</v>
+        <v>0.3731043009915851</v>
       </c>
       <c r="N22">
-        <v>0.8984568706649441</v>
+        <v>0.7722045663508812</v>
       </c>
       <c r="O22">
-        <v>1.69874693650199</v>
+        <v>2.282728789852541</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.217172289483699</v>
+        <v>1.729692123903391</v>
       </c>
       <c r="C23">
-        <v>0.5844200139018767</v>
+        <v>0.1325682623352478</v>
       </c>
       <c r="D23">
-        <v>0.03118952627032234</v>
+        <v>0.1003379132655766</v>
       </c>
       <c r="E23">
-        <v>0.02787955961774147</v>
+        <v>0.06365529804897463</v>
       </c>
       <c r="F23">
-        <v>2.175240531062499</v>
+        <v>0.7877558731014034</v>
       </c>
       <c r="G23">
-        <v>0.0007771934989940587</v>
+        <v>0.0007998603582400898</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.009744706689474</v>
+        <v>1.430651887172246</v>
       </c>
       <c r="L23">
-        <v>0.2289302570267324</v>
+        <v>0.2249336243065443</v>
       </c>
       <c r="M23">
-        <v>0.7032770210911252</v>
+        <v>0.3595831709647257</v>
       </c>
       <c r="N23">
-        <v>0.9151526658730091</v>
+        <v>0.7897692004335699</v>
       </c>
       <c r="O23">
-        <v>1.64864000452053</v>
+        <v>2.251120640607496</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.583724910650858</v>
+        <v>1.479469780045434</v>
       </c>
       <c r="C24">
-        <v>0.5012568835766729</v>
+        <v>0.1293166111411566</v>
       </c>
       <c r="D24">
-        <v>0.03430758694963432</v>
+        <v>0.0903354292470695</v>
       </c>
       <c r="E24">
-        <v>0.02839770971358391</v>
+        <v>0.06094413662706799</v>
       </c>
       <c r="F24">
-        <v>1.917459400017719</v>
+        <v>0.7268415295498869</v>
       </c>
       <c r="G24">
-        <v>0.0007886241551233908</v>
+        <v>0.0008056939853563553</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.8552061831113349</v>
+        <v>1.223337678520863</v>
       </c>
       <c r="L24">
-        <v>0.1998324141478349</v>
+        <v>0.1974679816411395</v>
       </c>
       <c r="M24">
-        <v>0.5998213082303749</v>
+        <v>0.3088567376225342</v>
       </c>
       <c r="N24">
-        <v>0.9827837254490106</v>
+        <v>0.8588600214085442</v>
       </c>
       <c r="O24">
-        <v>1.467179395486397</v>
+        <v>2.140041256834081</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.921235501953618</v>
+        <v>1.212766929227115</v>
       </c>
       <c r="C25">
-        <v>0.4135716579252176</v>
+        <v>0.1258771023383289</v>
       </c>
       <c r="D25">
-        <v>0.0377819836961617</v>
+        <v>0.0795104329496894</v>
       </c>
       <c r="E25">
-        <v>0.02902937326982258</v>
+        <v>0.05835469353961997</v>
       </c>
       <c r="F25">
-        <v>1.658194200886101</v>
+        <v>0.666446266669972</v>
       </c>
       <c r="G25">
-        <v>0.0008012894663410021</v>
+        <v>0.0008122395013362353</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.693234161454761</v>
+        <v>1.001440855593415</v>
       </c>
       <c r="L25">
-        <v>0.1698029634440417</v>
+        <v>0.168702414813346</v>
       </c>
       <c r="M25">
-        <v>0.4918758302759727</v>
+        <v>0.2550109951552137</v>
       </c>
       <c r="N25">
-        <v>1.064120944046799</v>
+        <v>0.938545418724912</v>
       </c>
       <c r="O25">
-        <v>1.286370914905675</v>
+        <v>2.036895569228307</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_13/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.018463335550621</v>
+        <v>0.8818609244197262</v>
       </c>
       <c r="C2">
-        <v>0.1233963298855585</v>
+        <v>0.1370962182342979</v>
       </c>
       <c r="D2">
-        <v>0.07149684309569437</v>
+        <v>0.08310304379325828</v>
       </c>
       <c r="E2">
-        <v>0.05670970416319854</v>
+        <v>0.07309722430883525</v>
       </c>
       <c r="F2">
-        <v>0.6259696967955222</v>
+        <v>0.4052969851267534</v>
       </c>
       <c r="G2">
-        <v>0.0008172907531630494</v>
+        <v>0.3047216445539789</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.001306257188665394</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2843850464100939</v>
       </c>
       <c r="K2">
-        <v>0.8390284302267901</v>
+        <v>0.3137436302649448</v>
       </c>
       <c r="L2">
-        <v>0.1481459928642792</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2159560812052668</v>
+        <v>0.7906307309735467</v>
       </c>
       <c r="N2">
-        <v>1.001365931483747</v>
+        <v>0.181737368043116</v>
       </c>
       <c r="O2">
-        <v>1.97363009311988</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.1989245934954269</v>
+      </c>
+      <c r="P2">
+        <v>0.8300850061295897</v>
+      </c>
+      <c r="Q2">
+        <v>1.18936940584527</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8877594263237256</v>
+        <v>0.7679147598317115</v>
       </c>
       <c r="C3">
-        <v>0.1217444402970997</v>
+        <v>0.1326212770799771</v>
       </c>
       <c r="D3">
-        <v>0.06603331230074616</v>
+        <v>0.07405349181080823</v>
       </c>
       <c r="E3">
-        <v>0.05574580041938226</v>
+        <v>0.06975293999974319</v>
       </c>
       <c r="F3">
-        <v>0.6007638800065038</v>
+        <v>0.3880824839811794</v>
       </c>
       <c r="G3">
-        <v>0.0008208652762883485</v>
+        <v>0.2961099868404347</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.002212703205123123</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2843551321573443</v>
       </c>
       <c r="K3">
-        <v>0.7293306145272425</v>
+        <v>0.314827539031743</v>
       </c>
       <c r="L3">
-        <v>0.1345500932728783</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.1897850768440641</v>
+        <v>0.692583897886891</v>
       </c>
       <c r="N3">
-        <v>1.046394441945043</v>
+        <v>0.1640524226003279</v>
       </c>
       <c r="O3">
-        <v>1.937902164400384</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.1741616317783645</v>
+      </c>
+      <c r="P3">
+        <v>0.8572212097164638</v>
+      </c>
+      <c r="Q3">
+        <v>1.170787207836426</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8078940891986406</v>
+        <v>0.6978880994526833</v>
       </c>
       <c r="C4">
-        <v>0.1207438154105347</v>
+        <v>0.1298465667744821</v>
       </c>
       <c r="D4">
-        <v>0.06266087962365674</v>
+        <v>0.06847461202761451</v>
       </c>
       <c r="E4">
-        <v>0.05522460833454268</v>
+        <v>0.06768918648367617</v>
       </c>
       <c r="F4">
-        <v>0.5863036236506716</v>
+        <v>0.3780447861593217</v>
       </c>
       <c r="G4">
-        <v>0.0008231367085477591</v>
+        <v>0.2912719058159965</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.002913762817845222</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.284636875536485</v>
       </c>
       <c r="K4">
-        <v>0.6620879479633146</v>
+        <v>0.3158587225161256</v>
       </c>
       <c r="L4">
-        <v>0.1263511834011553</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1738405016414895</v>
+        <v>0.6322483531849628</v>
       </c>
       <c r="N4">
-        <v>1.075211272222401</v>
+        <v>0.1531763504333838</v>
       </c>
       <c r="O4">
-        <v>1.919255931929399</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.1589508165972333</v>
+      </c>
+      <c r="P4">
+        <v>0.8745506633572067</v>
+      </c>
+      <c r="Q4">
+        <v>1.160951861268899</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7754329667780837</v>
+        <v>0.6693319643115672</v>
       </c>
       <c r="C5">
-        <v>0.1203393774220771</v>
+        <v>0.1287087401162736</v>
       </c>
       <c r="D5">
-        <v>0.06128189307776211</v>
+        <v>0.06619517323310475</v>
       </c>
       <c r="E5">
-        <v>0.05502945219412148</v>
+        <v>0.06684531428079943</v>
       </c>
       <c r="F5">
-        <v>0.5806550860015705</v>
+        <v>0.3740830044163204</v>
       </c>
       <c r="G5">
-        <v>0.0008240818979317326</v>
+        <v>0.2894090260665152</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.003234271567232438</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.284825274663099</v>
       </c>
       <c r="K5">
-        <v>0.6347047960290979</v>
+        <v>0.3163683969112476</v>
       </c>
       <c r="L5">
-        <v>0.1230452798665098</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1673712988270353</v>
+        <v>0.6076240427265134</v>
       </c>
       <c r="N5">
-        <v>1.087242334743014</v>
+        <v>0.1487390385346075</v>
       </c>
       <c r="O5">
-        <v>1.912452009350474</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.1527498693410791</v>
+      </c>
+      <c r="P5">
+        <v>0.8817774201274045</v>
+      </c>
+      <c r="Q5">
+        <v>1.157326544904635</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7700475740775232</v>
+        <v>0.6645889432252261</v>
       </c>
       <c r="C6">
-        <v>0.1202724186943733</v>
+        <v>0.1285193670208642</v>
       </c>
       <c r="D6">
-        <v>0.06105262387458765</v>
+        <v>0.06581630145166883</v>
       </c>
       <c r="E6">
-        <v>0.05499807243939081</v>
+        <v>0.06670500844851013</v>
       </c>
       <c r="F6">
-        <v>0.5797315721008971</v>
+        <v>0.3734327778232327</v>
       </c>
       <c r="G6">
-        <v>0.000824240035607261</v>
+        <v>0.2891061357778852</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.003289551399822899</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2848609490072675</v>
       </c>
       <c r="K6">
-        <v>0.6301587122685106</v>
+        <v>0.3164583598778954</v>
       </c>
       <c r="L6">
-        <v>0.1224984002745799</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1662987202347601</v>
+        <v>0.6035328624949869</v>
       </c>
       <c r="N6">
-        <v>1.08925730540266</v>
+        <v>0.1480018869306221</v>
       </c>
       <c r="O6">
-        <v>1.911369278454131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.151720037058972</v>
+      </c>
+      <c r="P6">
+        <v>0.8829872882489038</v>
+      </c>
+      <c r="Q6">
+        <v>1.156747299801225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8074559808028425</v>
+        <v>0.6975030660616142</v>
       </c>
       <c r="C7">
-        <v>0.120738347689656</v>
+        <v>0.1298312508174888</v>
       </c>
       <c r="D7">
-        <v>0.06264230140791227</v>
+        <v>0.06844389548204788</v>
       </c>
       <c r="E7">
-        <v>0.05522190729690202</v>
+        <v>0.06767781772664883</v>
       </c>
       <c r="F7">
-        <v>0.5862264716990069</v>
+        <v>0.3779908418881703</v>
       </c>
       <c r="G7">
-        <v>0.0008231493761389763</v>
+        <v>0.2912463479780101</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.002917946292416373</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.284639120835557</v>
       </c>
       <c r="K7">
-        <v>0.6617185852810792</v>
+        <v>0.3158652371739414</v>
       </c>
       <c r="L7">
-        <v>0.1263064591354066</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1737531447814504</v>
+        <v>0.6319164154922134</v>
       </c>
       <c r="N7">
-        <v>1.075372369104622</v>
+        <v>0.1531165295287096</v>
       </c>
       <c r="O7">
-        <v>1.919160997105195</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.1588671993207704</v>
+      </c>
+      <c r="P7">
+        <v>0.8746474623271059</v>
+      </c>
+      <c r="Q7">
+        <v>1.160901436641296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9733083056960083</v>
+        <v>0.8425830287779661</v>
       </c>
       <c r="C8">
-        <v>0.1228238600393894</v>
+        <v>0.1355586908746673</v>
       </c>
       <c r="D8">
-        <v>0.06961657752982831</v>
+        <v>0.07998718600478583</v>
       </c>
       <c r="E8">
-        <v>0.05636235980608539</v>
+        <v>0.07194609455094714</v>
       </c>
       <c r="F8">
-        <v>0.6170607842405715</v>
+        <v>0.3992478412436853</v>
       </c>
       <c r="G8">
-        <v>0.0008185075132677855</v>
+        <v>0.3016563757894204</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.001587886043481368</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2843112910141272</v>
       </c>
       <c r="K8">
-        <v>0.8011754611318338</v>
+        <v>0.3140399445419142</v>
       </c>
       <c r="L8">
-        <v>0.14342580218932</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2069046315437184</v>
+        <v>0.7568500052367853</v>
       </c>
       <c r="N8">
-        <v>1.016645405762668</v>
+        <v>0.1756426996860938</v>
       </c>
       <c r="O8">
-        <v>1.960607770796173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.1903870941491768</v>
+      </c>
+      <c r="P8">
+        <v>0.8393011267373787</v>
+      </c>
+      <c r="Q8">
+        <v>1.182627452516513</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.302241161993607</v>
+        <v>1.126778277645911</v>
       </c>
       <c r="C9">
-        <v>0.1270272547154079</v>
+        <v>0.1465902775325461</v>
       </c>
       <c r="D9">
-        <v>0.08316276434639036</v>
+        <v>0.1024637022603088</v>
       </c>
       <c r="E9">
-        <v>0.05918461082468163</v>
+        <v>0.08024720745104297</v>
       </c>
       <c r="F9">
-        <v>0.6861334947150652</v>
+        <v>0.4453970742061344</v>
       </c>
       <c r="G9">
-        <v>0.0008099995395969372</v>
+        <v>0.3258422350340169</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0001961147628071203</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2861380452125886</v>
       </c>
       <c r="K9">
-        <v>1.076003848223763</v>
+        <v>0.3134783856262544</v>
       </c>
       <c r="L9">
-        <v>0.1782878187691068</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2730470805548961</v>
+        <v>1.000947934340104</v>
       </c>
       <c r="N9">
-        <v>0.9110402589654374</v>
+        <v>0.2197194648914333</v>
       </c>
       <c r="O9">
-        <v>2.069564408556943</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.2521910686470079</v>
+      </c>
+      <c r="P9">
+        <v>0.7754251466618403</v>
+      </c>
+      <c r="Q9">
+        <v>1.238343081039375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.547100094803852</v>
+        <v>1.329337461920346</v>
       </c>
       <c r="C10">
-        <v>0.1301935014511457</v>
+        <v>0.1561387426988858</v>
       </c>
       <c r="D10">
-        <v>0.09305253789062107</v>
+        <v>0.1197321618175238</v>
       </c>
       <c r="E10">
-        <v>0.06165234153341892</v>
+        <v>0.08322850304258722</v>
       </c>
       <c r="F10">
-        <v>0.742928705499267</v>
+        <v>0.4780013220970716</v>
       </c>
       <c r="G10">
-        <v>0.0008040913860363496</v>
+        <v>0.3420418095262932</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0001946372522163564</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2870144311554412</v>
       </c>
       <c r="K10">
-        <v>1.279446416446575</v>
+        <v>0.3115892667156359</v>
       </c>
       <c r="L10">
-        <v>0.2048493216449003</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.322548760884338</v>
+        <v>1.180469285635638</v>
       </c>
       <c r="N10">
-        <v>0.8396866887393539</v>
+        <v>0.2406023787592773</v>
       </c>
       <c r="O10">
-        <v>2.168796628964486</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.2914300721463121</v>
+      </c>
+      <c r="P10">
+        <v>0.7329351913255167</v>
+      </c>
+      <c r="Q10">
+        <v>1.274937418994327</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.659408976501709</v>
+        <v>1.365824479205799</v>
       </c>
       <c r="C11">
-        <v>0.1316530204023252</v>
+        <v>0.1757376725159432</v>
       </c>
       <c r="D11">
-        <v>0.09754205312340503</v>
+        <v>0.1350601834545699</v>
       </c>
       <c r="E11">
-        <v>0.06286927638799966</v>
+        <v>0.06297078866927741</v>
       </c>
       <c r="F11">
-        <v>0.770268416246779</v>
+        <v>0.4557322448055672</v>
       </c>
       <c r="G11">
-        <v>0.0008014733957666851</v>
+        <v>0.3144444377809279</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01875409291438856</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.269782019783456</v>
       </c>
       <c r="K11">
-        <v>1.372496272260037</v>
+        <v>0.2819763226417038</v>
       </c>
       <c r="L11">
-        <v>0.217176878016474</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3453166100090996</v>
+        <v>1.266367185906915</v>
       </c>
       <c r="N11">
-        <v>0.8086760378042932</v>
+        <v>0.1619707744864201</v>
       </c>
       <c r="O11">
-        <v>2.21865044406502</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.2568407513933195</v>
+      </c>
+      <c r="P11">
+        <v>0.7262359648057313</v>
+      </c>
+      <c r="Q11">
+        <v>1.180508249296196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.702089314621048</v>
+        <v>1.352989287078373</v>
       </c>
       <c r="C12">
-        <v>0.1322086533925955</v>
+        <v>0.1927777768923704</v>
       </c>
       <c r="D12">
-        <v>0.0992410972153337</v>
+        <v>0.1447822713805493</v>
       </c>
       <c r="E12">
-        <v>0.06334443024510605</v>
+        <v>0.05231794980168747</v>
       </c>
       <c r="F12">
-        <v>0.7808541467335033</v>
+        <v>0.4298828126160501</v>
       </c>
       <c r="G12">
-        <v>0.0008004916498805078</v>
+        <v>0.2881882541349512</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05741960204145613</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2551306737969483</v>
       </c>
       <c r="K12">
-        <v>1.407818664094151</v>
+        <v>0.2584769693272584</v>
       </c>
       <c r="L12">
-        <v>0.2218835102964789</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3539785230715822</v>
+        <v>1.301213290056808</v>
       </c>
       <c r="N12">
-        <v>0.7971501430082153</v>
+        <v>0.1069910101932976</v>
       </c>
       <c r="O12">
-        <v>2.238254939069094</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.2215072760012333</v>
+      </c>
+      <c r="P12">
+        <v>0.7340709386361475</v>
+      </c>
+      <c r="Q12">
+        <v>1.094220327905603</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.692890291409981</v>
+        <v>1.30153006699453</v>
       </c>
       <c r="C13">
-        <v>0.1320888537363629</v>
+        <v>0.2085671304754442</v>
       </c>
       <c r="D13">
-        <v>0.09887521863935689</v>
+        <v>0.1506510026389662</v>
       </c>
       <c r="E13">
-        <v>0.06324144757964945</v>
+        <v>0.04831162920199805</v>
       </c>
       <c r="F13">
-        <v>0.7785636915371157</v>
+        <v>0.3996378503491229</v>
       </c>
       <c r="G13">
-        <v>0.0008007026644682809</v>
+        <v>0.2613196877125361</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1131634468814298</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2415219850045673</v>
       </c>
       <c r="K13">
-        <v>1.400207275348521</v>
+        <v>0.2381864127091262</v>
       </c>
       <c r="L13">
-        <v>0.2208680880262506</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3521111633709566</v>
+        <v>1.298451071668097</v>
       </c>
       <c r="N13">
-        <v>0.7996226446181627</v>
+        <v>0.06707260360555267</v>
       </c>
       <c r="O13">
-        <v>2.233999671150769</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.1837830711039459</v>
+      </c>
+      <c r="P13">
+        <v>0.7526103049537625</v>
+      </c>
+      <c r="Q13">
+        <v>1.008737798023901</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.662917166313633</v>
+        <v>1.24824867710052</v>
       </c>
       <c r="C14">
-        <v>0.1316986725061398</v>
+        <v>0.2192084194609123</v>
       </c>
       <c r="D14">
-        <v>0.09768185344274372</v>
+        <v>0.1530115300773218</v>
       </c>
       <c r="E14">
-        <v>0.06290807593389047</v>
+        <v>0.04940824885997941</v>
       </c>
       <c r="F14">
-        <v>0.7711345465365866</v>
+        <v>0.3766551823497508</v>
       </c>
       <c r="G14">
-        <v>0.0008013924362112709</v>
+        <v>0.2424602523168247</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1625131515768174</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2325555005681537</v>
       </c>
       <c r="K14">
-        <v>1.375400450022426</v>
+        <v>0.2256759026591482</v>
       </c>
       <c r="L14">
-        <v>0.2175633052517441</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3460283985758892</v>
+        <v>1.279471725733373</v>
       </c>
       <c r="N14">
-        <v>0.8077233902645489</v>
+        <v>0.04821210414136878</v>
       </c>
       <c r="O14">
-        <v>2.220248480915728</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.1568417737522694</v>
+      </c>
+      <c r="P14">
+        <v>0.7706593983145282</v>
+      </c>
+      <c r="Q14">
+        <v>0.9499261727495139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.644578062226543</v>
+        <v>1.227231921259857</v>
       </c>
       <c r="C15">
-        <v>0.1314600646091506</v>
+        <v>0.2211553604463887</v>
       </c>
       <c r="D15">
-        <v>0.09695075725534963</v>
+        <v>0.1526917668920618</v>
       </c>
       <c r="E15">
-        <v>0.06270576529469807</v>
+        <v>0.05015314952261907</v>
       </c>
       <c r="F15">
-        <v>0.7666148061524893</v>
+        <v>0.3701689772921952</v>
       </c>
       <c r="G15">
-        <v>0.0008018161836078898</v>
+        <v>0.237697106659752</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1750255637524845</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2305901000054575</v>
       </c>
       <c r="K15">
-        <v>1.360217245310423</v>
+        <v>0.2231763366378168</v>
       </c>
       <c r="L15">
-        <v>0.2155441392701789</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3423079025551914</v>
+        <v>1.266776642530317</v>
       </c>
       <c r="N15">
-        <v>0.8127138856181126</v>
+        <v>0.04480620968919347</v>
       </c>
       <c r="O15">
-        <v>2.211921505381724</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.1495590751148832</v>
+      </c>
+      <c r="P15">
+        <v>0.776610632015462</v>
+      </c>
+      <c r="Q15">
+        <v>0.9356816934874104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.53978057262583</v>
+        <v>1.151615594610774</v>
       </c>
       <c r="C16">
-        <v>0.1300985199390183</v>
+        <v>0.2131213883947538</v>
       </c>
       <c r="D16">
-        <v>0.0927589747999491</v>
+        <v>0.1438146299617102</v>
       </c>
       <c r="E16">
-        <v>0.06157477446280168</v>
+        <v>0.0496441973287407</v>
       </c>
       <c r="F16">
-        <v>0.7411736362198269</v>
+        <v>0.3621600968382452</v>
       </c>
       <c r="G16">
-        <v>0.0008042638470155405</v>
+        <v>0.2360694884209806</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1623156978070455</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2328014611272948</v>
       </c>
       <c r="K16">
-        <v>1.273376692655631</v>
+        <v>0.2278934970072797</v>
       </c>
       <c r="L16">
-        <v>0.2040488844845356</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3210662121220338</v>
+        <v>1.189683820247438</v>
       </c>
       <c r="N16">
-        <v>0.8417432004346423</v>
+        <v>0.0449952615181104</v>
       </c>
       <c r="O16">
-        <v>2.16563744902902</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.1414209255316443</v>
+      </c>
+      <c r="P16">
+        <v>0.7884599879662915</v>
+      </c>
+      <c r="Q16">
+        <v>0.9366880799022965</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.475739740461734</v>
+        <v>1.121885808622892</v>
       </c>
       <c r="C17">
-        <v>0.1292682956724889</v>
+        <v>0.2012427771608856</v>
       </c>
       <c r="D17">
-        <v>0.09018526280163996</v>
+        <v>0.1357748172893167</v>
       </c>
       <c r="E17">
-        <v>0.06090564015654287</v>
+        <v>0.04806519599695891</v>
       </c>
       <c r="F17">
-        <v>0.7259628115471557</v>
+        <v>0.368302191542071</v>
       </c>
       <c r="G17">
-        <v>0.0008057829821929974</v>
+        <v>0.2448542455497602</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1245626367293937</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2393042965790073</v>
       </c>
       <c r="K17">
-        <v>1.220241353002507</v>
+        <v>0.2381310947023572</v>
       </c>
       <c r="L17">
-        <v>0.1970618341814685</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3081019939964804</v>
+        <v>1.140791685680625</v>
       </c>
       <c r="N17">
-        <v>0.8599288686684528</v>
+        <v>0.05357282969164601</v>
       </c>
       <c r="O17">
-        <v>2.138484049015005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.1491066072285783</v>
+      </c>
+      <c r="P17">
+        <v>0.7881571852674369</v>
+      </c>
+      <c r="Q17">
+        <v>0.9688240115911242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.438990660384519</v>
+        <v>1.127976251631793</v>
       </c>
       <c r="C18">
-        <v>0.1287925654472346</v>
+        <v>0.1858064664992298</v>
       </c>
       <c r="D18">
-        <v>0.0887040278074096</v>
+        <v>0.1276954314066927</v>
       </c>
       <c r="E18">
-        <v>0.06052960456174716</v>
+        <v>0.04882199681616273</v>
       </c>
       <c r="F18">
-        <v>0.7173543881249671</v>
+        <v>0.3873058831460696</v>
       </c>
       <c r="G18">
-        <v>0.0008066633295575827</v>
+        <v>0.263892940576639</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07173326984357686</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2503140287503953</v>
       </c>
       <c r="K18">
-        <v>1.18972573515569</v>
+        <v>0.2548807935795772</v>
       </c>
       <c r="L18">
-        <v>0.1930658815126378</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3006685038628163</v>
+        <v>1.110576402192407</v>
       </c>
       <c r="N18">
-        <v>0.8705245542390898</v>
+        <v>0.07820525051480942</v>
       </c>
       <c r="O18">
-        <v>2.123306630128184</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.1725222670577331</v>
+      </c>
+      <c r="P18">
+        <v>0.7793393909347195</v>
+      </c>
+      <c r="Q18">
+        <v>1.032186719012202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.426562184528279</v>
+        <v>1.162427462708109</v>
       </c>
       <c r="C19">
-        <v>0.1286317938756625</v>
+        <v>0.1701443432659318</v>
       </c>
       <c r="D19">
-        <v>0.08820234262875459</v>
+        <v>0.1203686249266553</v>
       </c>
       <c r="E19">
-        <v>0.0604037799990369</v>
+        <v>0.05650374747497811</v>
       </c>
       <c r="F19">
-        <v>0.7144633559771947</v>
+        <v>0.4155932480068643</v>
       </c>
       <c r="G19">
-        <v>0.0008069625417654082</v>
+        <v>0.2905082892287822</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02642207608671754</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.264399566363366</v>
       </c>
       <c r="K19">
-        <v>1.179401230136648</v>
+        <v>0.2767071436293342</v>
       </c>
       <c r="L19">
-        <v>0.1917167423069941</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2981555052879941</v>
+        <v>1.097625192093943</v>
       </c>
       <c r="N19">
-        <v>0.8741351285356753</v>
+        <v>0.1258513735334219</v>
       </c>
       <c r="O19">
-        <v>2.118242052986488</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.208967228971602</v>
+      </c>
+      <c r="P19">
+        <v>0.7671079469897215</v>
+      </c>
+      <c r="Q19">
+        <v>1.118100209070519</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.482548013163409</v>
+        <v>1.275882367697704</v>
       </c>
       <c r="C20">
-        <v>0.1293564876157802</v>
+        <v>0.1536923209402516</v>
       </c>
       <c r="D20">
-        <v>0.09045933018698804</v>
+        <v>0.1152337917616535</v>
       </c>
       <c r="E20">
-        <v>0.06097595113175736</v>
+        <v>0.08231061206706336</v>
       </c>
       <c r="F20">
-        <v>0.727567377839577</v>
+        <v>0.4690359399339386</v>
       </c>
       <c r="G20">
-        <v>0.0008056205892539284</v>
+        <v>0.337425372415133</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0001210753129146092</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2865792882257594</v>
       </c>
       <c r="K20">
-        <v>1.225892796685088</v>
+        <v>0.3117933911353212</v>
       </c>
       <c r="L20">
-        <v>0.1978032333614266</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3094796267894679</v>
+        <v>1.133361357376231</v>
       </c>
       <c r="N20">
-        <v>0.8579788590122295</v>
+        <v>0.2346333885476497</v>
       </c>
       <c r="O20">
-        <v>2.141328645202918</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.2808687224700606</v>
+      </c>
+      <c r="P20">
+        <v>0.7438504564984854</v>
+      </c>
+      <c r="Q20">
+        <v>1.264132172370708</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.671716733509754</v>
+        <v>1.441242150945129</v>
       </c>
       <c r="C21">
-        <v>0.1318131966865153</v>
+        <v>0.1586181911904774</v>
       </c>
       <c r="D21">
-        <v>0.09803239930622709</v>
+        <v>0.127195333145707</v>
       </c>
       <c r="E21">
-        <v>0.06300560015637302</v>
+        <v>0.08938945283550837</v>
       </c>
       <c r="F21">
-        <v>0.7733102113474928</v>
+        <v>0.5018977090284693</v>
       </c>
       <c r="G21">
-        <v>0.0008011895754015232</v>
+        <v>0.3572115048415156</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0001583998099405903</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2910556757009033</v>
       </c>
       <c r="K21">
-        <v>1.382684352699783</v>
+        <v>0.3164220272640499</v>
       </c>
       <c r="L21">
-        <v>0.2185329292147031</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3478139260788708</v>
+        <v>1.270373308553758</v>
       </c>
       <c r="N21">
-        <v>0.8053380374612438</v>
+        <v>0.2684679945508321</v>
       </c>
       <c r="O21">
-        <v>2.224267436505073</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.3206428461426896</v>
+      </c>
+      <c r="P21">
+        <v>0.7110260133449025</v>
+      </c>
+      <c r="Q21">
+        <v>1.315765493336983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.796241640428065</v>
+        <v>1.546208917740842</v>
       </c>
       <c r="C22">
-        <v>0.1334360632539173</v>
+        <v>0.1626067287926958</v>
       </c>
       <c r="D22">
-        <v>0.1029759476063745</v>
+        <v>0.1354274832669233</v>
       </c>
       <c r="E22">
-        <v>0.06441598790258141</v>
+        <v>0.09243769938531088</v>
       </c>
       <c r="F22">
-        <v>0.8045710874087746</v>
+        <v>0.5218209211869436</v>
       </c>
       <c r="G22">
-        <v>0.0007983495882821046</v>
+        <v>0.3685900105472655</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.0004460412462305996</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2932502497443892</v>
       </c>
       <c r="K22">
-        <v>1.485667768018146</v>
+        <v>0.3180903074466528</v>
       </c>
       <c r="L22">
-        <v>0.2323068028631639</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3731043009915851</v>
+        <v>1.360191741223275</v>
       </c>
       <c r="N22">
-        <v>0.7722045663508812</v>
+        <v>0.284741596673399</v>
       </c>
       <c r="O22">
-        <v>2.282728789852541</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.3435031022959549</v>
+      </c>
+      <c r="P22">
+        <v>0.6907275268133546</v>
+      </c>
+      <c r="Q22">
+        <v>1.344680542408241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.729692123903391</v>
+        <v>1.490172946577445</v>
       </c>
       <c r="C23">
-        <v>0.1325682623352478</v>
+        <v>0.1604787455184606</v>
       </c>
       <c r="D23">
-        <v>0.1003379132655766</v>
+        <v>0.1310340274560673</v>
       </c>
       <c r="E23">
-        <v>0.06365529804897463</v>
+        <v>0.09081046828940131</v>
       </c>
       <c r="F23">
-        <v>0.7877558731014034</v>
+        <v>0.5111235518718331</v>
       </c>
       <c r="G23">
-        <v>0.0007998603582400898</v>
+        <v>0.3624630251920564</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.0002749698176345294</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2920470877758419</v>
       </c>
       <c r="K23">
-        <v>1.430651887172246</v>
+        <v>0.31716039645314</v>
       </c>
       <c r="L23">
-        <v>0.2249336243065443</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3595831709647257</v>
+        <v>1.312248790952253</v>
       </c>
       <c r="N23">
-        <v>0.7897692004335699</v>
+        <v>0.2760537730687531</v>
       </c>
       <c r="O23">
-        <v>2.251120640607496</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.3312986610745412</v>
+      </c>
+      <c r="P23">
+        <v>0.7014953799699875</v>
+      </c>
+      <c r="Q23">
+        <v>1.329067218776601</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.479469780045434</v>
+        <v>1.278202046056435</v>
       </c>
       <c r="C24">
-        <v>0.1293166111411566</v>
+        <v>0.1523994725591464</v>
       </c>
       <c r="D24">
-        <v>0.0903354292470695</v>
+        <v>0.1143872423927945</v>
       </c>
       <c r="E24">
-        <v>0.06094413662706799</v>
+        <v>0.08465248804095005</v>
       </c>
       <c r="F24">
-        <v>0.7268415295498869</v>
+        <v>0.4719725759735383</v>
       </c>
       <c r="G24">
-        <v>0.0008056939853563553</v>
+        <v>0.3404100754901123</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>9.749902385447484E-07</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2881750752836112</v>
       </c>
       <c r="K24">
-        <v>1.223337678520863</v>
+        <v>0.314486502163227</v>
       </c>
       <c r="L24">
-        <v>0.1974679816411395</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3088567376225342</v>
+        <v>1.130755749986122</v>
       </c>
       <c r="N24">
-        <v>0.8588600214085442</v>
+        <v>0.2431935800641014</v>
       </c>
       <c r="O24">
-        <v>2.140041256834081</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.2851456110693107</v>
+      </c>
+      <c r="P24">
+        <v>0.7436980853645672</v>
+      </c>
+      <c r="Q24">
+        <v>1.273798436718749</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.212766929227115</v>
+        <v>1.049898007733958</v>
       </c>
       <c r="C25">
-        <v>0.1258771023383289</v>
+        <v>0.14362507625804</v>
       </c>
       <c r="D25">
-        <v>0.0795104329496894</v>
+        <v>0.09639755517753912</v>
       </c>
       <c r="E25">
-        <v>0.05835469353961997</v>
+        <v>0.07800696176282784</v>
       </c>
       <c r="F25">
-        <v>0.666446266669972</v>
+        <v>0.432399039190571</v>
       </c>
       <c r="G25">
-        <v>0.0008122395013362353</v>
+        <v>0.3188655870414436</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0004323275964279727</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2853665963500021</v>
       </c>
       <c r="K25">
-        <v>1.001440855593415</v>
+        <v>0.313290316978275</v>
       </c>
       <c r="L25">
-        <v>0.168702414813346</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2550109951552137</v>
+        <v>0.9349823219682207</v>
       </c>
       <c r="N25">
-        <v>0.938545418724912</v>
+        <v>0.2077996003961502</v>
       </c>
       <c r="O25">
-        <v>2.036895569228307</v>
+        <v>0.2354653948896903</v>
+      </c>
+      <c r="P25">
+        <v>0.7921031436209365</v>
+      </c>
+      <c r="Q25">
+        <v>1.221776432200897</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_13/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8818609244197262</v>
+        <v>0.8531428127334095</v>
       </c>
       <c r="C2">
-        <v>0.1370962182342979</v>
+        <v>0.130129906637535</v>
       </c>
       <c r="D2">
-        <v>0.08310304379325828</v>
+        <v>0.08520967322450446</v>
       </c>
       <c r="E2">
-        <v>0.07309722430883525</v>
+        <v>0.06987538993441156</v>
       </c>
       <c r="F2">
-        <v>0.4052969851267534</v>
+        <v>0.3864238260737523</v>
       </c>
       <c r="G2">
-        <v>0.3047216445539789</v>
+        <v>0.2688677690325818</v>
       </c>
       <c r="H2">
-        <v>0.001306257188665394</v>
+        <v>0.001026764455715257</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2843850464100939</v>
+        <v>0.3058909058590871</v>
       </c>
       <c r="K2">
-        <v>0.3137436302649448</v>
+        <v>0.289646806806438</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1516075026165531</v>
       </c>
       <c r="M2">
-        <v>0.7906307309735467</v>
+        <v>0.07392574578931566</v>
       </c>
       <c r="N2">
-        <v>0.181737368043116</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.1989245934954269</v>
+        <v>0.7934524490260912</v>
       </c>
       <c r="P2">
-        <v>0.8300850061295897</v>
+        <v>0.1891774559793973</v>
       </c>
       <c r="Q2">
-        <v>1.18936940584527</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.1955757726684091</v>
+      </c>
+      <c r="R2">
+        <v>0.8153507765039052</v>
+      </c>
+      <c r="S2">
+        <v>1.126422492967592</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7679147598317115</v>
+        <v>0.7462805866102826</v>
       </c>
       <c r="C3">
-        <v>0.1326212770799771</v>
+        <v>0.1229733417467145</v>
       </c>
       <c r="D3">
-        <v>0.07405349181080823</v>
+        <v>0.0754691360010753</v>
       </c>
       <c r="E3">
-        <v>0.06975293999974319</v>
+        <v>0.06699137687813383</v>
       </c>
       <c r="F3">
-        <v>0.3880824839811794</v>
+        <v>0.3713275344411713</v>
       </c>
       <c r="G3">
-        <v>0.2961099868404347</v>
+        <v>0.2627723351234366</v>
       </c>
       <c r="H3">
-        <v>0.002212703205123123</v>
+        <v>0.001777819159350713</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2843551321573443</v>
+        <v>0.3045636586450513</v>
       </c>
       <c r="K3">
-        <v>0.314827539031743</v>
+        <v>0.2919157556506882</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.156231615165435</v>
       </c>
       <c r="M3">
-        <v>0.692583897886891</v>
+        <v>0.07236134105268199</v>
       </c>
       <c r="N3">
-        <v>0.1640524226003279</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.1741616317783645</v>
+        <v>0.6953251015721378</v>
       </c>
       <c r="P3">
-        <v>0.8572212097164638</v>
+        <v>0.1711508744115235</v>
       </c>
       <c r="Q3">
-        <v>1.170787207836426</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1715150609279341</v>
+      </c>
+      <c r="R3">
+        <v>0.8392231771735155</v>
+      </c>
+      <c r="S3">
+        <v>1.113194323369726</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6978880994526833</v>
+        <v>0.6804427184898714</v>
       </c>
       <c r="C4">
-        <v>0.1298465667744821</v>
+        <v>0.1185890893874202</v>
       </c>
       <c r="D4">
-        <v>0.06847461202761451</v>
+        <v>0.06947651859147896</v>
       </c>
       <c r="E4">
-        <v>0.06768918648367617</v>
+        <v>0.0652061047472845</v>
       </c>
       <c r="F4">
-        <v>0.3780447861593217</v>
+        <v>0.3624989886523764</v>
       </c>
       <c r="G4">
-        <v>0.2912719058159965</v>
+        <v>0.2594691571914183</v>
       </c>
       <c r="H4">
-        <v>0.002913762817845222</v>
+        <v>0.002363102620377089</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.284636875536485</v>
+        <v>0.3039025198037635</v>
       </c>
       <c r="K4">
-        <v>0.3158587225161256</v>
+        <v>0.2935894812498674</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1592345051626722</v>
       </c>
       <c r="M4">
-        <v>0.6322483531849628</v>
+        <v>0.07195355292646965</v>
       </c>
       <c r="N4">
-        <v>0.1531763504333838</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.1589508165972333</v>
+        <v>0.6349252826935015</v>
       </c>
       <c r="P4">
-        <v>0.8745506633572067</v>
+        <v>0.160081946536188</v>
       </c>
       <c r="Q4">
-        <v>1.160951861268899</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1567173010193805</v>
+      </c>
+      <c r="R4">
+        <v>0.8545406373952726</v>
+      </c>
+      <c r="S4">
+        <v>1.106359068858268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6693319643115672</v>
+        <v>0.6535542214055852</v>
       </c>
       <c r="C5">
-        <v>0.1287087401162736</v>
+        <v>0.1168045465885186</v>
       </c>
       <c r="D5">
-        <v>0.06619517323310475</v>
+        <v>0.06703111834532649</v>
       </c>
       <c r="E5">
-        <v>0.06684531428079943</v>
+        <v>0.06447472425641543</v>
       </c>
       <c r="F5">
-        <v>0.3740830044163204</v>
+        <v>0.3590075987121963</v>
       </c>
       <c r="G5">
-        <v>0.2894090260665152</v>
+        <v>0.2582289363940689</v>
       </c>
       <c r="H5">
-        <v>0.003234271567232438</v>
+        <v>0.002631530251922531</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.284825274663099</v>
+        <v>0.3036709023060595</v>
       </c>
       <c r="K5">
-        <v>0.3163683969112476</v>
+        <v>0.2943401088266349</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1604993564973931</v>
       </c>
       <c r="M5">
-        <v>0.6076240427265134</v>
+        <v>0.07192518774693468</v>
       </c>
       <c r="N5">
-        <v>0.1487390385346075</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1527498693410791</v>
+        <v>0.6102717491969827</v>
       </c>
       <c r="P5">
-        <v>0.8817774201274045</v>
+        <v>0.1555704305954535</v>
       </c>
       <c r="Q5">
-        <v>1.157326544904635</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1506802944369134</v>
+      </c>
+      <c r="R5">
+        <v>0.8609458313257985</v>
+      </c>
+      <c r="S5">
+        <v>1.103885993587198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6645889432252261</v>
+        <v>0.6490857661543998</v>
       </c>
       <c r="C6">
-        <v>0.1285193670208642</v>
+        <v>0.116508338360255</v>
       </c>
       <c r="D6">
-        <v>0.06581630145166883</v>
+        <v>0.06662484802266277</v>
       </c>
       <c r="E6">
-        <v>0.06670500844851013</v>
+        <v>0.0643530389959448</v>
       </c>
       <c r="F6">
-        <v>0.3734327778232327</v>
+        <v>0.3584341488281098</v>
       </c>
       <c r="G6">
-        <v>0.2891061357778852</v>
+        <v>0.2580292587467525</v>
       </c>
       <c r="H6">
-        <v>0.003289551399822899</v>
+        <v>0.002677872291914352</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2848609490072675</v>
+        <v>0.3036347006821956</v>
       </c>
       <c r="K6">
-        <v>0.3164583598778954</v>
+        <v>0.2944688346383089</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1607118693701644</v>
       </c>
       <c r="M6">
-        <v>0.6035328624949869</v>
+        <v>0.07192876777125257</v>
       </c>
       <c r="N6">
-        <v>0.1480018869306221</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.151720037058972</v>
+        <v>0.6061755534552731</v>
       </c>
       <c r="P6">
-        <v>0.8829872882489038</v>
+        <v>0.1548212262351214</v>
       </c>
       <c r="Q6">
-        <v>1.156747299801225</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1496774246777406</v>
+      </c>
+      <c r="R6">
+        <v>0.8620191894685032</v>
+      </c>
+      <c r="S6">
+        <v>1.103493884467269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6975030660616142</v>
+        <v>0.6797458187115524</v>
       </c>
       <c r="C7">
-        <v>0.1298312508174888</v>
+        <v>0.1184436941471958</v>
       </c>
       <c r="D7">
-        <v>0.06844389548204788</v>
+        <v>0.06955051305192228</v>
       </c>
       <c r="E7">
-        <v>0.06767781772664883</v>
+        <v>0.0652157208976174</v>
       </c>
       <c r="F7">
-        <v>0.3779908418881703</v>
+        <v>0.361885747295922</v>
       </c>
       <c r="G7">
-        <v>0.2912463479780101</v>
+        <v>0.2617151959499679</v>
       </c>
       <c r="H7">
-        <v>0.002917946292416373</v>
+        <v>0.002369326965285357</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.284639120835557</v>
+        <v>0.3006435142702983</v>
       </c>
       <c r="K7">
-        <v>0.3158652371739414</v>
+        <v>0.2933158654221657</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1591051894395257</v>
       </c>
       <c r="M7">
-        <v>0.6319164154922134</v>
+        <v>0.07188359850607107</v>
       </c>
       <c r="N7">
-        <v>0.1531165295287096</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.1588671993207704</v>
+        <v>0.6340078581362008</v>
       </c>
       <c r="P7">
-        <v>0.8746474623271059</v>
+        <v>0.1599897425671841</v>
       </c>
       <c r="Q7">
-        <v>1.160901436641296</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1565750241499337</v>
+      </c>
+      <c r="R7">
+        <v>0.8546810783088485</v>
+      </c>
+      <c r="S7">
+        <v>1.104611657712482</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8425830287779661</v>
+        <v>0.8152204283966853</v>
       </c>
       <c r="C8">
-        <v>0.1355586908746673</v>
+        <v>0.1272466800079073</v>
       </c>
       <c r="D8">
-        <v>0.07998718600478583</v>
+        <v>0.08221440280795633</v>
       </c>
       <c r="E8">
-        <v>0.07194609455094714</v>
+        <v>0.06895071088437099</v>
       </c>
       <c r="F8">
-        <v>0.3992478412436853</v>
+        <v>0.3792489838258959</v>
       </c>
       <c r="G8">
-        <v>0.3016563757894204</v>
+        <v>0.2742504505674148</v>
       </c>
       <c r="H8">
-        <v>0.001587886043481368</v>
+        <v>0.001265297753184291</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2843112910141272</v>
+        <v>0.2948496280267179</v>
       </c>
       <c r="K8">
-        <v>0.3140399445419142</v>
+        <v>0.2894432079470235</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1527354933415737</v>
       </c>
       <c r="M8">
-        <v>0.7568500052367853</v>
+        <v>0.07299982743781719</v>
       </c>
       <c r="N8">
-        <v>0.1756426996860938</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.1903870941491768</v>
+        <v>0.7576845726196098</v>
       </c>
       <c r="P8">
-        <v>0.8393011267373787</v>
+        <v>0.182859011297289</v>
       </c>
       <c r="Q8">
-        <v>1.182627452516513</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.1870800652928324</v>
+      </c>
+      <c r="R8">
+        <v>0.8236972400191114</v>
+      </c>
+      <c r="S8">
+        <v>1.115934464150001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.126778277645911</v>
+        <v>1.080464320409732</v>
       </c>
       <c r="C9">
-        <v>0.1465902775325461</v>
+        <v>0.1450461999384487</v>
       </c>
       <c r="D9">
-        <v>0.1024637022603088</v>
+        <v>0.1065833873757711</v>
       </c>
       <c r="E9">
-        <v>0.08024720745104297</v>
+        <v>0.0760998338282306</v>
       </c>
       <c r="F9">
-        <v>0.4453970742061344</v>
+        <v>0.4190613827908081</v>
       </c>
       <c r="G9">
-        <v>0.3258422350340169</v>
+        <v>0.2941905502748483</v>
       </c>
       <c r="H9">
-        <v>0.0001961147628071203</v>
+        <v>0.0001343973301100032</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2861380452125886</v>
+        <v>0.2962239751429507</v>
       </c>
       <c r="K9">
-        <v>0.3134783856262544</v>
+        <v>0.2851987903515187</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1420798281393196</v>
       </c>
       <c r="M9">
-        <v>1.000947934340104</v>
+        <v>0.07987901727126001</v>
       </c>
       <c r="N9">
-        <v>0.2197194648914333</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.2521910686470079</v>
+        <v>1.001289373277899</v>
       </c>
       <c r="P9">
-        <v>0.7754251466618403</v>
+        <v>0.2278502625089232</v>
       </c>
       <c r="Q9">
-        <v>1.238343081039375</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2469625527282204</v>
+      </c>
+      <c r="R9">
+        <v>0.7681018753871776</v>
+      </c>
+      <c r="S9">
+        <v>1.155100390853448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.329337461920346</v>
+        <v>1.26707424565123</v>
       </c>
       <c r="C10">
-        <v>0.1561387426988858</v>
+        <v>0.1591232011015578</v>
       </c>
       <c r="D10">
-        <v>0.1197321618175238</v>
+        <v>0.1259207587431064</v>
       </c>
       <c r="E10">
-        <v>0.08322850304258722</v>
+        <v>0.07852604466500424</v>
       </c>
       <c r="F10">
-        <v>0.4780013220970716</v>
+        <v>0.4436962529144921</v>
       </c>
       <c r="G10">
-        <v>0.3420418095262932</v>
+        <v>0.3213683220090573</v>
       </c>
       <c r="H10">
-        <v>0.0001946372522163564</v>
+        <v>0.0002010704612853687</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2870144311554412</v>
+        <v>0.2791662928805181</v>
       </c>
       <c r="K10">
-        <v>0.3115892667156359</v>
+        <v>0.2791581196432631</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1334506399321196</v>
       </c>
       <c r="M10">
-        <v>1.180469285635638</v>
+        <v>0.0859231591397247</v>
       </c>
       <c r="N10">
-        <v>0.2406023787592773</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.2914300721463121</v>
+        <v>1.17673677102843</v>
       </c>
       <c r="P10">
-        <v>0.7329351913255167</v>
+        <v>0.2490377203996985</v>
       </c>
       <c r="Q10">
-        <v>1.274937418994327</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.2844643619150418</v>
+      </c>
+      <c r="R10">
+        <v>0.732832018110205</v>
+      </c>
+      <c r="S10">
+        <v>1.169811320756452</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.365824479205799</v>
+        <v>1.300398721210229</v>
       </c>
       <c r="C11">
-        <v>0.1757376725159432</v>
+        <v>0.1801439792254484</v>
       </c>
       <c r="D11">
-        <v>0.1350601834545699</v>
+        <v>0.1431233666205571</v>
       </c>
       <c r="E11">
-        <v>0.06297078866927741</v>
+        <v>0.05966089692519638</v>
       </c>
       <c r="F11">
-        <v>0.4557322448055672</v>
+        <v>0.4165589816589161</v>
       </c>
       <c r="G11">
-        <v>0.3144444377809279</v>
+        <v>0.325289126508018</v>
       </c>
       <c r="H11">
-        <v>0.01875409291438856</v>
+        <v>0.01875565335550178</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.269782019783456</v>
+        <v>0.2346281146707199</v>
       </c>
       <c r="K11">
-        <v>0.2819763226417038</v>
+        <v>0.2502948573226149</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1208023434923611</v>
       </c>
       <c r="M11">
-        <v>1.266367185906915</v>
+        <v>0.0780423433435935</v>
       </c>
       <c r="N11">
-        <v>0.1619707744864201</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.2568407513933195</v>
+        <v>1.254207085301999</v>
       </c>
       <c r="P11">
-        <v>0.7262359648057313</v>
+        <v>0.1681535964436307</v>
       </c>
       <c r="Q11">
-        <v>1.180508249296196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2497757965581577</v>
+      </c>
+      <c r="R11">
+        <v>0.7355701204079566</v>
+      </c>
+      <c r="S11">
+        <v>1.064192614022275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.352989287078373</v>
+        <v>1.289679712053925</v>
       </c>
       <c r="C12">
-        <v>0.1927777768923704</v>
+        <v>0.1973192195365954</v>
       </c>
       <c r="D12">
-        <v>0.1447822713805493</v>
+        <v>0.1535998726946701</v>
       </c>
       <c r="E12">
-        <v>0.05231794980168747</v>
+        <v>0.04998142424253693</v>
       </c>
       <c r="F12">
-        <v>0.4298828126160501</v>
+        <v>0.3905488724208723</v>
       </c>
       <c r="G12">
-        <v>0.2881882541349512</v>
+        <v>0.3134682682097463</v>
       </c>
       <c r="H12">
-        <v>0.05741960204145613</v>
+        <v>0.05741931112283538</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2551306737969483</v>
+        <v>0.2138206600960402</v>
       </c>
       <c r="K12">
-        <v>0.2584769693272584</v>
+        <v>0.2294227885067457</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.113025997227572</v>
       </c>
       <c r="M12">
-        <v>1.301213290056808</v>
+        <v>0.07056550877953072</v>
       </c>
       <c r="N12">
-        <v>0.1069910101932976</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.2215072760012333</v>
+        <v>1.28488716891178</v>
       </c>
       <c r="P12">
-        <v>0.7340709386361475</v>
+        <v>0.1115103808642957</v>
       </c>
       <c r="Q12">
-        <v>1.094220327905603</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2149765616868002</v>
+      </c>
+      <c r="R12">
+        <v>0.7496035586170606</v>
+      </c>
+      <c r="S12">
+        <v>0.9800590823766839</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.30153006699453</v>
+        <v>1.245366282904257</v>
       </c>
       <c r="C13">
-        <v>0.2085671304754442</v>
+        <v>0.2128672086348047</v>
       </c>
       <c r="D13">
-        <v>0.1506510026389662</v>
+        <v>0.158977905971625</v>
       </c>
       <c r="E13">
-        <v>0.04831162920199805</v>
+        <v>0.04675575537749999</v>
       </c>
       <c r="F13">
-        <v>0.3996378503491229</v>
+        <v>0.3648057406342389</v>
       </c>
       <c r="G13">
-        <v>0.2613196877125361</v>
+        <v>0.2832178163958829</v>
       </c>
       <c r="H13">
-        <v>0.1131634468814298</v>
+        <v>0.113159399562818</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2415219850045673</v>
+        <v>0.2088148694541623</v>
       </c>
       <c r="K13">
-        <v>0.2381864127091262</v>
+        <v>0.2134916929444657</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1080060102907456</v>
       </c>
       <c r="M13">
-        <v>1.298451071668097</v>
+        <v>0.06335529692653807</v>
       </c>
       <c r="N13">
-        <v>0.06707260360555267</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.1837830711039459</v>
+        <v>1.28277357483384</v>
       </c>
       <c r="P13">
-        <v>0.7526103049537625</v>
+        <v>0.07030188746779586</v>
       </c>
       <c r="Q13">
-        <v>1.008737798023901</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.1783478090020623</v>
+      </c>
+      <c r="R13">
+        <v>0.7704231147168557</v>
+      </c>
+      <c r="S13">
+        <v>0.9094672010954241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.24824867710052</v>
+        <v>1.199219081600006</v>
       </c>
       <c r="C14">
-        <v>0.2192084194609123</v>
+        <v>0.2232042618654333</v>
       </c>
       <c r="D14">
-        <v>0.1530115300773218</v>
+        <v>0.1604094970444976</v>
       </c>
       <c r="E14">
-        <v>0.04940824885997941</v>
+        <v>0.04834338944452998</v>
       </c>
       <c r="F14">
-        <v>0.3766551823497508</v>
+        <v>0.346795325165985</v>
       </c>
       <c r="G14">
-        <v>0.2424602523168247</v>
+        <v>0.2552652814719707</v>
       </c>
       <c r="H14">
-        <v>0.1625131515768174</v>
+        <v>0.1625019386575417</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2325555005681537</v>
+        <v>0.2109747927596608</v>
       </c>
       <c r="K14">
-        <v>0.2256759026591482</v>
+        <v>0.2045143758679853</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1055470666609057</v>
       </c>
       <c r="M14">
-        <v>1.279471725733373</v>
+        <v>0.05858412886423991</v>
       </c>
       <c r="N14">
-        <v>0.04821210414136878</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.1568417737522694</v>
+        <v>1.266374614374968</v>
       </c>
       <c r="P14">
-        <v>0.7706593983145282</v>
+        <v>0.05071502769975744</v>
       </c>
       <c r="Q14">
-        <v>0.9499261727495139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.152355142419708</v>
+      </c>
+      <c r="R14">
+        <v>0.7877720317128336</v>
+      </c>
+      <c r="S14">
+        <v>0.8656953579347828</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.227231921259857</v>
+        <v>1.18088660663679</v>
       </c>
       <c r="C15">
-        <v>0.2211553604463887</v>
+        <v>0.225068306854169</v>
       </c>
       <c r="D15">
-        <v>0.1526917668920618</v>
+        <v>0.1596145399335995</v>
       </c>
       <c r="E15">
-        <v>0.05015314952261907</v>
+        <v>0.04921553294656889</v>
       </c>
       <c r="F15">
-        <v>0.3701689772921952</v>
+        <v>0.3423054462503785</v>
       </c>
       <c r="G15">
-        <v>0.237697106659752</v>
+        <v>0.24561266546106</v>
       </c>
       <c r="H15">
-        <v>0.1750255637524845</v>
+        <v>0.1750097755864459</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2305901000054575</v>
+        <v>0.2140325240176573</v>
       </c>
       <c r="K15">
-        <v>0.2231763366378168</v>
+        <v>0.2031049278684982</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1053425980670664</v>
       </c>
       <c r="M15">
-        <v>1.266776642530317</v>
+        <v>0.05747206157340123</v>
       </c>
       <c r="N15">
-        <v>0.04480620968919347</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1495590751148832</v>
+        <v>1.255218394775</v>
       </c>
       <c r="P15">
-        <v>0.776610632015462</v>
+        <v>0.04717882928329686</v>
       </c>
       <c r="Q15">
-        <v>0.9356816934874104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.1453906909530041</v>
+      </c>
+      <c r="R15">
+        <v>0.7926063508562891</v>
+      </c>
+      <c r="S15">
+        <v>0.8571159443614675</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.151615594610774</v>
+        <v>1.113579526437576</v>
       </c>
       <c r="C16">
-        <v>0.2131213883947538</v>
+        <v>0.2167806644585397</v>
       </c>
       <c r="D16">
-        <v>0.1438146299617102</v>
+        <v>0.1486938593905904</v>
       </c>
       <c r="E16">
-        <v>0.0496441973287407</v>
+        <v>0.04880890676376293</v>
       </c>
       <c r="F16">
-        <v>0.3621600968382452</v>
+        <v>0.3410343606410677</v>
       </c>
       <c r="G16">
-        <v>0.2360694884209806</v>
+        <v>0.2220730473885979</v>
       </c>
       <c r="H16">
-        <v>0.1623156978070455</v>
+        <v>0.1622650768831733</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2328014611272948</v>
+        <v>0.2381799088136702</v>
       </c>
       <c r="K16">
-        <v>0.2278934970072797</v>
+        <v>0.2099935841205838</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1091165904295401</v>
       </c>
       <c r="M16">
-        <v>1.189683820247438</v>
+        <v>0.05763836829382285</v>
       </c>
       <c r="N16">
-        <v>0.0449952615181104</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.1414209255316443</v>
+        <v>1.185581307335326</v>
       </c>
       <c r="P16">
-        <v>0.7884599879662915</v>
+        <v>0.0477037563059497</v>
       </c>
       <c r="Q16">
-        <v>0.9366880799022965</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.1380742827864836</v>
+      </c>
+      <c r="R16">
+        <v>0.7969932370732167</v>
+      </c>
+      <c r="S16">
+        <v>0.8756245824632174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.121885808622892</v>
+        <v>1.085932688200415</v>
       </c>
       <c r="C17">
-        <v>0.2012427771608856</v>
+        <v>0.2044845992980271</v>
       </c>
       <c r="D17">
-        <v>0.1357748172893167</v>
+        <v>0.1398466612051124</v>
       </c>
       <c r="E17">
-        <v>0.04806519599695891</v>
+        <v>0.04698825072248392</v>
       </c>
       <c r="F17">
-        <v>0.368302191542071</v>
+        <v>0.3491194271396907</v>
       </c>
       <c r="G17">
-        <v>0.2448542455497602</v>
+        <v>0.2212661772426117</v>
       </c>
       <c r="H17">
-        <v>0.1245626367293937</v>
+        <v>0.1244858811259064</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2393042965790073</v>
+        <v>0.2546898505678357</v>
       </c>
       <c r="K17">
-        <v>0.2381310947023572</v>
+        <v>0.2200077289847577</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.113610555038532</v>
       </c>
       <c r="M17">
-        <v>1.140791685680625</v>
+        <v>0.06007702314559182</v>
       </c>
       <c r="N17">
-        <v>0.05357282969164601</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.1491066072285783</v>
+        <v>1.139950620547438</v>
       </c>
       <c r="P17">
-        <v>0.7881571852674369</v>
+        <v>0.05690430476460406</v>
       </c>
       <c r="Q17">
-        <v>0.9688240115911242</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.1458780377714426</v>
+      </c>
+      <c r="R17">
+        <v>0.7925569527584315</v>
+      </c>
+      <c r="S17">
+        <v>0.9119988093331983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.127976251631793</v>
+        <v>1.089844543633347</v>
       </c>
       <c r="C18">
-        <v>0.1858064664992298</v>
+        <v>0.1886856478912335</v>
       </c>
       <c r="D18">
-        <v>0.1276954314066927</v>
+        <v>0.1316021937752083</v>
       </c>
       <c r="E18">
-        <v>0.04882199681616273</v>
+        <v>0.04712415931888325</v>
       </c>
       <c r="F18">
-        <v>0.3873058831460696</v>
+        <v>0.3673301179571098</v>
       </c>
       <c r="G18">
-        <v>0.263892940576639</v>
+        <v>0.2346363494306942</v>
       </c>
       <c r="H18">
-        <v>0.07173326984357686</v>
+        <v>0.07165048336778312</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2503140287503953</v>
+        <v>0.2694412300600177</v>
       </c>
       <c r="K18">
-        <v>0.2548807935795772</v>
+        <v>0.2348240924557921</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1196571322971476</v>
       </c>
       <c r="M18">
-        <v>1.110576402192407</v>
+        <v>0.06493487491819572</v>
       </c>
       <c r="N18">
-        <v>0.07820525051480942</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1725222670577331</v>
+        <v>1.111234627901808</v>
       </c>
       <c r="P18">
-        <v>0.7793393909347195</v>
+        <v>0.08258724460509725</v>
       </c>
       <c r="Q18">
-        <v>1.032186719012202</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.1689177155850672</v>
+      </c>
+      <c r="R18">
+        <v>0.7809743502906983</v>
+      </c>
+      <c r="S18">
+        <v>0.9718040567551611</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.162427462708109</v>
+        <v>1.119128865844345</v>
       </c>
       <c r="C19">
-        <v>0.1701443432659318</v>
+        <v>0.1726357663953593</v>
       </c>
       <c r="D19">
-        <v>0.1203686249266553</v>
+        <v>0.1244817004829315</v>
       </c>
       <c r="E19">
-        <v>0.05650374747497811</v>
+        <v>0.05381787598162635</v>
       </c>
       <c r="F19">
-        <v>0.4155932480068643</v>
+        <v>0.3930516019139816</v>
       </c>
       <c r="G19">
-        <v>0.2905082892287822</v>
+        <v>0.2572145182409287</v>
       </c>
       <c r="H19">
-        <v>0.02642207608671754</v>
+        <v>0.02635826295097132</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.264399566363366</v>
+        <v>0.2835552830421761</v>
       </c>
       <c r="K19">
-        <v>0.2767071436293342</v>
+        <v>0.2534399687996505</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1268489662786472</v>
       </c>
       <c r="M19">
-        <v>1.097625192093943</v>
+        <v>0.0717712727646358</v>
       </c>
       <c r="N19">
-        <v>0.1258513735334219</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.208967228971602</v>
+        <v>1.09885141630042</v>
       </c>
       <c r="P19">
-        <v>0.7671079469897215</v>
+        <v>0.1317033734040152</v>
       </c>
       <c r="Q19">
-        <v>1.118100209070519</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2046039909602797</v>
+      </c>
+      <c r="R19">
+        <v>0.7664794092243419</v>
+      </c>
+      <c r="S19">
+        <v>1.048953035322086</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.275882367697704</v>
+        <v>1.219146514707745</v>
       </c>
       <c r="C20">
-        <v>0.1536923209402516</v>
+        <v>0.1559568728675629</v>
       </c>
       <c r="D20">
-        <v>0.1152337917616535</v>
+        <v>0.1204649467257894</v>
       </c>
       <c r="E20">
-        <v>0.08231061206706336</v>
+        <v>0.07768709477749347</v>
       </c>
       <c r="F20">
-        <v>0.4690359399339386</v>
+        <v>0.4388979746450659</v>
       </c>
       <c r="G20">
-        <v>0.337425372415133</v>
+        <v>0.3054522838566598</v>
       </c>
       <c r="H20">
-        <v>0.0001210753129146092</v>
+        <v>0.0001182510884198962</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2865792882257594</v>
+        <v>0.293943991268236</v>
       </c>
       <c r="K20">
-        <v>0.3117933911353212</v>
+        <v>0.2814649291710296</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1359349018127585</v>
       </c>
       <c r="M20">
-        <v>1.133361357376231</v>
+        <v>0.08450375722123482</v>
       </c>
       <c r="N20">
-        <v>0.2346333885476497</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.2808687224700606</v>
+        <v>1.132894239766784</v>
       </c>
       <c r="P20">
-        <v>0.7438504564984854</v>
+        <v>0.2430808947323584</v>
       </c>
       <c r="Q20">
-        <v>1.264132172370708</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.2745962324366573</v>
+      </c>
+      <c r="R20">
+        <v>0.7413919167194578</v>
+      </c>
+      <c r="S20">
+        <v>1.170936156306652</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.441242150945129</v>
+        <v>1.363966521309379</v>
       </c>
       <c r="C21">
-        <v>0.1586181911904774</v>
+        <v>0.1617416479573208</v>
       </c>
       <c r="D21">
-        <v>0.127195333145707</v>
+        <v>0.1362707591378722</v>
       </c>
       <c r="E21">
-        <v>0.08938945283550837</v>
+        <v>0.08447420508147196</v>
       </c>
       <c r="F21">
-        <v>0.5018977090284693</v>
+        <v>0.4539726258070971</v>
       </c>
       <c r="G21">
-        <v>0.3572115048415156</v>
+        <v>0.3806212705241023</v>
       </c>
       <c r="H21">
-        <v>0.0001583998099405903</v>
+        <v>0.0001578309704817205</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2910556757009033</v>
+        <v>0.2360181961481942</v>
       </c>
       <c r="K21">
-        <v>0.3164220272640499</v>
+        <v>0.2767373481791537</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1294895140767007</v>
       </c>
       <c r="M21">
-        <v>1.270373308553758</v>
+        <v>0.08966259573984203</v>
       </c>
       <c r="N21">
-        <v>0.2684679945508321</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.3206428461426896</v>
+        <v>1.255166871036579</v>
       </c>
       <c r="P21">
-        <v>0.7110260133449025</v>
+        <v>0.2770093264186499</v>
       </c>
       <c r="Q21">
-        <v>1.315765493336983</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3115603568779903</v>
+      </c>
+      <c r="R21">
+        <v>0.7160032197721193</v>
+      </c>
+      <c r="S21">
+        <v>1.170718187163502</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.546208917740842</v>
+        <v>1.455102586857777</v>
       </c>
       <c r="C22">
-        <v>0.1626067287926958</v>
+        <v>0.1662048615696605</v>
       </c>
       <c r="D22">
-        <v>0.1354274832669233</v>
+        <v>0.1472537721965494</v>
       </c>
       <c r="E22">
-        <v>0.09243769938531088</v>
+        <v>0.08749313366923239</v>
       </c>
       <c r="F22">
-        <v>0.5218209211869436</v>
+        <v>0.4614275241842307</v>
       </c>
       <c r="G22">
-        <v>0.3685900105472655</v>
+        <v>0.4364796219041125</v>
       </c>
       <c r="H22">
-        <v>0.0004460412462305996</v>
+        <v>0.0004068396367136184</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2932502497443892</v>
+        <v>0.2042240790011824</v>
       </c>
       <c r="K22">
-        <v>0.3180903074466528</v>
+        <v>0.2720711427072189</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1249081299711463</v>
       </c>
       <c r="M22">
-        <v>1.360191741223275</v>
+        <v>0.09264259357268045</v>
       </c>
       <c r="N22">
-        <v>0.284741596673399</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.3435031022959549</v>
+        <v>1.334169461352332</v>
       </c>
       <c r="P22">
-        <v>0.6907275268133546</v>
+        <v>0.2931800975527921</v>
       </c>
       <c r="Q22">
-        <v>1.344680542408241</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3325087829156956</v>
+      </c>
+      <c r="R22">
+        <v>0.7013718227180412</v>
+      </c>
+      <c r="S22">
+        <v>1.16351055433438</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.490172946577445</v>
+        <v>1.407408894782918</v>
       </c>
       <c r="C23">
-        <v>0.1604787455184606</v>
+        <v>0.1641555690824177</v>
       </c>
       <c r="D23">
-        <v>0.1310340274560673</v>
+        <v>0.1410743981345632</v>
       </c>
       <c r="E23">
-        <v>0.09081046828940131</v>
+        <v>0.08581441368096598</v>
       </c>
       <c r="F23">
-        <v>0.5111235518718331</v>
+        <v>0.4589091130172989</v>
       </c>
       <c r="G23">
-        <v>0.3624630251920564</v>
+        <v>0.3990283583141832</v>
       </c>
       <c r="H23">
-        <v>0.0002749698176345294</v>
+        <v>0.000261508556835377</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2920470877758419</v>
+        <v>0.2252926724115056</v>
       </c>
       <c r="K23">
-        <v>0.31716039645314</v>
+        <v>0.2752454947537437</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1275594321414761</v>
       </c>
       <c r="M23">
-        <v>1.312248790952253</v>
+        <v>0.09132459772138901</v>
       </c>
       <c r="N23">
-        <v>0.2760537730687531</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.3312986610745412</v>
+        <v>1.293642864287165</v>
       </c>
       <c r="P23">
-        <v>0.7014953799699875</v>
+        <v>0.2846235596551026</v>
       </c>
       <c r="Q23">
-        <v>1.329067218776601</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3215001482611868</v>
+      </c>
+      <c r="R23">
+        <v>0.7086921094853871</v>
+      </c>
+      <c r="S23">
+        <v>1.171677566542044</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.278202046056435</v>
+        <v>1.221037454494791</v>
       </c>
       <c r="C24">
-        <v>0.1523994725591464</v>
+        <v>0.154517650200134</v>
       </c>
       <c r="D24">
-        <v>0.1143872423927945</v>
+        <v>0.1196069114259615</v>
       </c>
       <c r="E24">
-        <v>0.08465248804095005</v>
+        <v>0.07988669519822622</v>
       </c>
       <c r="F24">
-        <v>0.4719725759735383</v>
+        <v>0.4416414915962648</v>
       </c>
       <c r="G24">
-        <v>0.3404100754901123</v>
+        <v>0.3076716346314825</v>
       </c>
       <c r="H24">
-        <v>9.749902385447484E-07</v>
+        <v>2.14735984771508E-07</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2881750752836112</v>
+        <v>0.2959304986515434</v>
       </c>
       <c r="K24">
-        <v>0.314486502163227</v>
+        <v>0.2838058384717748</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.136875856326526</v>
       </c>
       <c r="M24">
-        <v>1.130755749986122</v>
+        <v>0.08531436117281999</v>
       </c>
       <c r="N24">
-        <v>0.2431935800641014</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.2851456110693107</v>
+        <v>1.130433575334507</v>
       </c>
       <c r="P24">
-        <v>0.7436980853645672</v>
+        <v>0.2518419090268083</v>
       </c>
       <c r="Q24">
-        <v>1.273798436718749</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.2787928189775641</v>
+      </c>
+      <c r="R24">
+        <v>0.7408044790434083</v>
+      </c>
+      <c r="S24">
+        <v>1.179845092295437</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049898007733958</v>
+        <v>1.009347732001714</v>
       </c>
       <c r="C25">
-        <v>0.14362507625804</v>
+        <v>0.1403995535502816</v>
       </c>
       <c r="D25">
-        <v>0.09639755517753912</v>
+        <v>0.0998384742740086</v>
       </c>
       <c r="E25">
-        <v>0.07800696176282784</v>
+        <v>0.07414556597931643</v>
       </c>
       <c r="F25">
-        <v>0.432399039190571</v>
+        <v>0.4086671394725556</v>
       </c>
       <c r="G25">
-        <v>0.3188655870414436</v>
+        <v>0.2850883548382868</v>
       </c>
       <c r="H25">
-        <v>0.0004323275964279727</v>
+        <v>0.0003188019517417207</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2853665963500021</v>
+        <v>0.3001310266675006</v>
       </c>
       <c r="K25">
-        <v>0.313290316978275</v>
+        <v>0.2864762951768682</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1449839566868505</v>
       </c>
       <c r="M25">
-        <v>0.9349823219682207</v>
+        <v>0.07766982644680098</v>
       </c>
       <c r="N25">
-        <v>0.2077996003961502</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.2354653948896903</v>
+        <v>0.9363307174762951</v>
       </c>
       <c r="P25">
-        <v>0.7921031436209365</v>
+        <v>0.2157135335002849</v>
       </c>
       <c r="Q25">
-        <v>1.221776432200897</v>
+        <v>0.2308629741789296</v>
+      </c>
+      <c r="R25">
+        <v>0.7824073549615491</v>
+      </c>
+      <c r="S25">
+        <v>1.145689657877526</v>
       </c>
     </row>
   </sheetData>
